--- a/data/output/FV2304_FV2210/UTILMD/11066.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11066.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="311">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="311">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1055,6 +1055,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U207" totalsRowShown="0">
+  <autoFilter ref="A1:U207"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,7 +1374,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10792,5 +10825,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11066.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11066.xlsx
@@ -2084,7 +2084,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4454,7 +4454,7 @@
         <v>288</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4822,7 +4822,7 @@
         <v>290</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5670,7 +5670,7 @@
         <v>293</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5860,7 +5860,7 @@
         <v>294</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6064,7 +6064,7 @@
         <v>295</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6268,7 +6268,7 @@
         <v>296</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6636,7 +6636,7 @@
         <v>297</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6828,7 +6828,7 @@
         <v>299</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7016,7 +7016,7 @@
         <v>300</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7304,7 +7304,7 @@
         <v>301</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7770,7 +7770,7 @@
         <v>304</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8016,7 +8016,7 @@
         <v>306</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8262,7 +8262,7 @@
         <v>294</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8450,7 +8450,7 @@
         <v>294</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8638,7 +8638,7 @@
         <v>294</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8826,7 +8826,7 @@
         <v>294</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9110,7 +9110,7 @@
         <v>307</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9398,7 +9398,7 @@
         <v>308</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -9644,7 +9644,7 @@
         <v>309</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10466,7 +10466,7 @@
         <v>310</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11288,7 +11288,7 @@
         <v>311</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -11720,7 +11720,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N205" s="2"/>
